--- a/jpcore-r4/feature/swg5-add_terminologies/StructureDefinition-jp-condition.xlsx
+++ b/jpcore-r4/feature/swg5-add_terminologies/StructureDefinition-jp-condition.xlsx
@@ -883,7 +883,7 @@
 本記録を記録し、その内容に責任を負う人。</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
 参照は、実際のFHIRリソースへの参照である必要があり、解決可能（内容に到達可能）である必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。</t>
   </si>
   <si>
@@ -907,10 +907,9 @@
 本状態があるという事実を作成した個人。</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
 参照は、実際のFHIRリソースへの参照である必要があり、解決可能（内容に到達可能）である必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。
-【JP-Core仕様】
-通常の診療では判断した個人と記載した個人は同一であるケースが一般的であり、既存の情報の転記などの際に、記載者と状態の存在を判断した個人が異なる場合に記入が必要となると考えられる。</t>
+【JP-Core仕様】通常の診療では判断した個人と記載した個人は同一であるケースが一般的であり、既存の情報の転記などの際に、記載者と状態の存在を判断した個人が異なる場合に記入が必要となると考えられる。</t>
   </si>
   <si>
     <t>REL-7.1 identifier + REL-7.12 type code</t>
